--- a/paper/实验结果/研究问题.xlsx
+++ b/paper/实验结果/研究问题.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IDEADemo\paper\douban\paper\实验结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DE8C5-EB6B-44CE-8BA0-A0BB3E4CF526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="0" windowWidth="21864" windowHeight="10020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>作业真实分数预测的误差</t>
   </si>
@@ -56,7 +55,13 @@
     <t>PG7</t>
   </si>
   <si>
+    <t>RPG7</t>
+  </si>
+  <si>
     <t>PG8</t>
+  </si>
+  <si>
+    <t>RPG6</t>
   </si>
   <si>
     <t>PG9</t>
@@ -64,12 +69,24 @@
   <si>
     <t>beta</t>
   </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +99,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -116,21 +139,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,17 +179,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -219,6 +251,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$23:$G$23</c:f>
@@ -249,7 +308,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F2A9-4E0F-821B-2238367B4BBF}"/>
+              <c16:uniqueId val="{00000000-5E1B-4E0D-A6F4-5EF548496EC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -285,6 +344,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$24:$G$24</c:f>
@@ -292,22 +378,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.6829999999999998</c:v>
+                  <c:v>3.383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2839999999999998</c:v>
+                  <c:v>3.262</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.4009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5950000000000002</c:v>
+                  <c:v>3.5249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7029999999999998</c:v>
+                  <c:v>3.6030000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8279999999999998</c:v>
+                  <c:v>3.7280000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,7 +401,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F2A9-4E0F-821B-2238367B4BBF}"/>
+              <c16:uniqueId val="{00000001-5E1B-4E0D-A6F4-5EF548496EC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -349,6 +435,33 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$25:$G$25</c:f>
@@ -356,13 +469,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.9509999999999996</c:v>
+                  <c:v>5.5510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.2690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9509999999999996</c:v>
+                  <c:v>4.9409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.9829999999999997</c:v>
@@ -371,7 +484,7 @@
                   <c:v>5.2110000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5890000000000004</c:v>
+                  <c:v>5.3890000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,7 +492,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F2A9-4E0F-821B-2238367B4BBF}"/>
+              <c16:uniqueId val="{00000002-5E1B-4E0D-A6F4-5EF548496EC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -422,7 +535,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -442,6 +555,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -471,7 +585,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -502,6 +616,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -515,7 +630,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -533,13 +648,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -557,11 +665,16 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -655,7 +768,7 @@
                   <c:v>4.2839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1509999999999998</c:v>
+                  <c:v>3.141</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.2629999999999999</c:v>
@@ -675,7 +788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F2A9-4E0F-821B-2238367B4BBF}"/>
+              <c16:uniqueId val="{00000000-7196-480C-B098-627AA3587CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -751,7 +864,7 @@
                   <c:v>3.9649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3570000000000002</c:v>
+                  <c:v>3.2570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6869999999999998</c:v>
@@ -768,7 +881,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F2A9-4E0F-821B-2238367B4BBF}"/>
+              <c16:uniqueId val="{00000001-7196-480C-B098-627AA3587CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -842,7 +955,7 @@
                   <c:v>5.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0439999999999996</c:v>
+                  <c:v>4.9089999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.3550000000000004</c:v>
@@ -859,7 +972,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F2A9-4E0F-821B-2238367B4BBF}"/>
+              <c16:uniqueId val="{00000002-7196-480C-B098-627AA3587CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -902,7 +1015,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -951,7 +1064,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -982,6 +1095,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -995,7 +1109,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1014,7 +1128,6 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1031,11 +1144,16 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2161,42 +2279,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B6475EE8-ACDE-45A5-83FB-05474267B263}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E87AE31D-C246-4B9C-9C51-D6A8298438D9}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11608594" cy="7580313"/>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635794</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>82233</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9DDC54-AAF7-48F7-A3BA-7723BD2C740B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2212,24 +2312,28 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11608594" cy="7580313"/>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635794</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>82233</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81987751-7CC5-48F7-8253-A63B3B418C6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2245,7 +2349,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2816,11 +2920,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2830,832 +2964,1283 @@
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="6"/>
       <c r="M1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="7"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
         <v>3.746</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>4.1680000000000001</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>5.6150000000000002</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="H3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>10</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6">
         <v>9</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6">
         <v>10</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
         <v>3.7440000000000002</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>4.2130000000000001</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>5.7850000000000001</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="M5" s="7" t="s">
+      <c r="H5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
         <v>9</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6">
         <v>9</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7">
+      <c r="R5" s="6"/>
+      <c r="S5" s="6">
         <v>10</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
         <v>3.637</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>3.8319999999999999</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>5.5759999999999996</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="M7" s="7" t="s">
+      <c r="H7" s="6"/>
+      <c r="M7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
         <v>5.1710000000000003</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6">
         <v>5.5179999999999998</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6">
         <v>8.0470000000000006</v>
       </c>
-      <c r="T7" s="7"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
         <v>3.5870000000000002</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>3.7709999999999999</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>5.5039999999999996</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="M9" s="7" t="s">
+      <c r="H9" s="6"/>
+      <c r="M9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
         <v>6.766</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6">
         <v>8.4469999999999992</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7">
+      <c r="R9" s="6"/>
+      <c r="S9" s="6">
         <v>7.8410000000000002</v>
       </c>
-      <c r="T9" s="7"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8">
+      <c r="B11" s="6"/>
+      <c r="C11" s="10">
+        <v>3.141</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="M11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="10">
+        <v>4.3310000000000004</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10">
+        <v>5.07</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10">
+        <v>7.3659999999999997</v>
+      </c>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>3.1459999999999999</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>3.262</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>4.3490000000000002</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6">
+        <v>5.423</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6">
+        <v>7.5890000000000004</v>
+      </c>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>200</v>
+      </c>
+      <c r="D22" s="2">
+        <v>300</v>
+      </c>
+      <c r="E22" s="2">
+        <v>400</v>
+      </c>
+      <c r="F22" s="2">
+        <v>500</v>
+      </c>
+      <c r="G22" s="2">
+        <v>600</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.585</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.2970000000000002</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.681</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="P23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2">
+        <v>3.383</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.262</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.6030000000000002</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3.7280000000000002</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="P24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2">
+        <v>5.5510000000000002</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.2110000000000003</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5.3890000000000002</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="J27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2">
+        <v>200</v>
+      </c>
+      <c r="D34" s="2">
+        <v>300</v>
+      </c>
+      <c r="E34" s="2">
+        <v>400</v>
+      </c>
+      <c r="F34" s="2">
+        <v>500</v>
+      </c>
+      <c r="G34" s="2">
+        <v>600</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4.2839999999999998</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3.141</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3.2629999999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3.577</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4.181</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4.593</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="N35" s="1"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="2">
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3.9039999999999999</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4.431</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5.5640000000000001</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5.3550000000000004</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5.6630000000000003</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="L37" s="3"/>
+      <c r="N37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="3"/>
+      <c r="N38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="J39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="N39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6">
+        <v>3.4043000000000001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3.9910000000000001</v>
+      </c>
+      <c r="F43" s="6">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="G43" s="6">
+        <v>5.2119999999999997</v>
+      </c>
+      <c r="H43" s="6">
+        <v>5.1886000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6">
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3.157</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="F45" s="6">
         <v>3.2839999999999998</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>4.9509999999999996</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="M11" s="7" t="s">
+      <c r="G45" s="6">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="H45" s="6">
+        <v>5.032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6">
+        <v>3.1879</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3.262</v>
+      </c>
+      <c r="F47" s="7">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="G47" s="6">
+        <v>5.0439999999999996</v>
+      </c>
+      <c r="H47" s="6">
+        <v>4.9740000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3.141</v>
+      </c>
+      <c r="E49" s="6">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="F49" s="6">
+        <v>3.2629999999999999</v>
+      </c>
+      <c r="G49" s="7">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="H49" s="7">
+        <v>4.9089999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6">
+        <v>3.153</v>
+      </c>
+      <c r="D51" s="6">
+        <v>3.1429999999999998</v>
+      </c>
+      <c r="E51" s="8">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="F51" s="6">
+        <v>3.2610000000000001</v>
+      </c>
+      <c r="G51" s="6">
+        <v>4.9889999999999999</v>
+      </c>
+      <c r="H51" s="6">
+        <v>4.9450000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55">
         <v>10</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8">
-        <v>4.3310000000000004</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8">
-        <v>5.07</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8">
-        <v>7.3659999999999997</v>
-      </c>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>5.0439999999999996</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="M13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <v>4.3490000000000002</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <v>5.423</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7">
-        <v>7.5890000000000004</v>
-      </c>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3">
-        <v>40</v>
-      </c>
-      <c r="F22" s="3">
-        <v>50</v>
-      </c>
-      <c r="G22" s="3">
-        <v>60</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>10</v>
       </c>
-      <c r="B23" s="2">
-        <v>3.585</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.2970000000000002</v>
-      </c>
-      <c r="D23" s="10">
-        <v>3.1459999999999999</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3.4529999999999998</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>3.681</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="H55">
         <v>1</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="P23" s="3"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3">
-        <v>3.6829999999999998</v>
-      </c>
-      <c r="C24" s="10">
-        <v>3.2839999999999998</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3.4009999999999998</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3.5950000000000002</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3.7029999999999998</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3.8279999999999998</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="P24" s="3"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3">
-        <v>5.9509999999999996</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5.2690000000000001</v>
-      </c>
-      <c r="D25" s="10">
-        <v>4.9509999999999996</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4.9829999999999997</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5.2110000000000003</v>
-      </c>
-      <c r="G25" s="3">
-        <v>5.5890000000000004</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="J27" s="2"/>
-      <c r="L27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="H33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="4">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56">
+        <v>0.01</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0.01</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0.01</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58">
+        <v>0.1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>100</v>
       </c>
-      <c r="C34" s="3">
-        <v>200</v>
-      </c>
-      <c r="D34" s="3">
-        <v>300</v>
-      </c>
-      <c r="E34" s="3">
-        <v>400</v>
-      </c>
-      <c r="F34" s="3">
-        <v>500</v>
-      </c>
-      <c r="G34" s="3">
-        <v>600</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="3">
-        <v>4.2839999999999998</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3.2629999999999999</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3.577</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4.181</v>
-      </c>
-      <c r="G35" s="4">
-        <v>4.593</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3">
-        <v>5.3760000000000003</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3.9649999999999999</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3.9039999999999999</v>
-      </c>
-      <c r="G36" s="3">
-        <v>4.431</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="N36" s="4"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4">
-        <v>6.3150000000000004</v>
-      </c>
-      <c r="C37" s="2">
-        <v>5.5640000000000001</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5.0439999999999996</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5.3550000000000004</v>
-      </c>
-      <c r="F37" s="3">
-        <v>5.6630000000000003</v>
-      </c>
-      <c r="G37" s="4">
-        <v>6.0750000000000002</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="L37" s="2"/>
-      <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="L38" s="2"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="J39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="N39" s="4"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61">
+        <v>10000</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63">
+        <v>1000</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:P2"/>
+  <mergeCells count="110">
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="Q13:R14"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="Q39:R40"/>
+    <mergeCell ref="S39:T40"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:D6"/>
     <mergeCell ref="E5:F6"/>
@@ -3672,43 +4257,75 @@
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="Q7:R8"/>
     <mergeCell ref="S7:T8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="Q39:R40"/>
-    <mergeCell ref="S39:T40"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,14 +4334,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +4350,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
